--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H2">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>1707.668562240749</v>
+        <v>3548.850861903765</v>
       </c>
       <c r="R2">
-        <v>15369.01706016674</v>
+        <v>31939.65775713389</v>
       </c>
       <c r="S2">
-        <v>0.07770805083333913</v>
+        <v>0.1074870114270837</v>
       </c>
       <c r="T2">
-        <v>0.07770805083333913</v>
+        <v>0.1074870114270837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H3">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>1877.520944028531</v>
+        <v>4111.475007682294</v>
       </c>
       <c r="R3">
-        <v>16897.68849625678</v>
+        <v>37003.27506914065</v>
       </c>
       <c r="S3">
-        <v>0.08543724243994076</v>
+        <v>0.1245276790515352</v>
       </c>
       <c r="T3">
-        <v>0.08543724243994075</v>
+        <v>0.1245276790515351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H4">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>1040.676466614902</v>
+        <v>3120.784423315588</v>
       </c>
       <c r="R4">
-        <v>9366.088199534117</v>
+        <v>28087.05980984029</v>
       </c>
       <c r="S4">
-        <v>0.04735634393986669</v>
+        <v>0.09452180551493795</v>
       </c>
       <c r="T4">
-        <v>0.04735634393986668</v>
+        <v>0.09452180551493793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H5">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>757.3532780235935</v>
+        <v>1601.750645974998</v>
       </c>
       <c r="R5">
-        <v>6816.179502212341</v>
+        <v>14415.75581377498</v>
       </c>
       <c r="S5">
-        <v>0.0344636238722045</v>
+        <v>0.04851356021619205</v>
       </c>
       <c r="T5">
-        <v>0.0344636238722045</v>
+        <v>0.04851356021619204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>2797.408315531709</v>
+        <v>2654.771598158359</v>
       </c>
       <c r="R6">
-        <v>25176.67483978538</v>
+        <v>23892.94438342523</v>
       </c>
       <c r="S6">
-        <v>0.1272970366683468</v>
+        <v>0.08040728568527908</v>
       </c>
       <c r="T6">
-        <v>0.1272970366683468</v>
+        <v>0.08040728568527906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>3075.651105574371</v>
@@ -883,10 +883,10 @@
         <v>27680.85995016934</v>
       </c>
       <c r="S7">
-        <v>0.1399585714361204</v>
+        <v>0.09315481500770938</v>
       </c>
       <c r="T7">
-        <v>0.1399585714361204</v>
+        <v>0.09315481500770936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>1704.778705808522</v>
+        <v>2334.550020101099</v>
       </c>
       <c r="R8">
-        <v>15343.0083522767</v>
+        <v>21010.95018090989</v>
       </c>
       <c r="S8">
-        <v>0.07757654691302225</v>
+        <v>0.07070846717776501</v>
       </c>
       <c r="T8">
-        <v>0.07757654691302224</v>
+        <v>0.07070846717776499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>1240.654307624194</v>
+        <v>1198.213812790406</v>
       </c>
       <c r="R9">
-        <v>11165.88876861774</v>
+        <v>10783.92431511365</v>
       </c>
       <c r="S9">
-        <v>0.05645640502800927</v>
+        <v>0.03629130295951683</v>
       </c>
       <c r="T9">
-        <v>0.05645640502800927</v>
+        <v>0.03629130295951682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H10">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I10">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J10">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>2447.717575686836</v>
+        <v>3251.67355221727</v>
       </c>
       <c r="R10">
-        <v>22029.45818118152</v>
+        <v>29265.06196995543</v>
       </c>
       <c r="S10">
-        <v>0.1113842381378422</v>
+        <v>0.09848615393119936</v>
       </c>
       <c r="T10">
-        <v>0.1113842381378422</v>
+        <v>0.09848615393119935</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H11">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I11">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J11">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>2691.178554806045</v>
+        <v>3767.184100802416</v>
       </c>
       <c r="R11">
-        <v>24220.6069932544</v>
+        <v>33904.65690722175</v>
       </c>
       <c r="S11">
-        <v>0.1224630145231762</v>
+        <v>0.1140998526699592</v>
       </c>
       <c r="T11">
-        <v>0.1224630145231762</v>
+        <v>0.1140998526699592</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H12">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I12">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J12">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>1491.672408956517</v>
+        <v>2859.452979667677</v>
       </c>
       <c r="R12">
-        <v>13425.05168060865</v>
+        <v>25735.07681700909</v>
       </c>
       <c r="S12">
-        <v>0.06787907088351061</v>
+        <v>0.08660664171609329</v>
       </c>
       <c r="T12">
-        <v>0.06787907088351061</v>
+        <v>0.08660664171609328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H13">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I13">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J13">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>1085.56599952271</v>
+        <v>1467.621609201639</v>
       </c>
       <c r="R13">
-        <v>9770.093995704392</v>
+        <v>13208.59448281475</v>
       </c>
       <c r="S13">
-        <v>0.04939905772064133</v>
+        <v>0.04445108200299722</v>
       </c>
       <c r="T13">
-        <v>0.04939905772064133</v>
+        <v>0.04445108200299722</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H14">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>18.26974835731022</v>
+        <v>7.043222564101557</v>
       </c>
       <c r="R14">
-        <v>164.427735215792</v>
+        <v>63.38900307691402</v>
       </c>
       <c r="S14">
-        <v>0.0008313712423207476</v>
+        <v>0.0002133239670220911</v>
       </c>
       <c r="T14">
-        <v>0.0008313712423207476</v>
+        <v>0.000213323967022091</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H15">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>20.08693955106311</v>
+        <v>8.159833893474225</v>
       </c>
       <c r="R15">
-        <v>180.782455959568</v>
+        <v>73.43850504126802</v>
       </c>
       <c r="S15">
-        <v>0.0009140631585276925</v>
+        <v>0.0002471437073803844</v>
       </c>
       <c r="T15">
-        <v>0.0009140631585276924</v>
+        <v>0.0002471437073803844</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H16">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>11.13383333676933</v>
+        <v>6.19366102530489</v>
       </c>
       <c r="R16">
-        <v>100.204500030924</v>
+        <v>55.74294922774401</v>
       </c>
       <c r="S16">
-        <v>0.0005066489516960621</v>
+        <v>0.000187592586814228</v>
       </c>
       <c r="T16">
-        <v>0.0005066489516960621</v>
+        <v>0.000187592586814228</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H17">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>8.10265768956889</v>
+        <v>3.178912479219667</v>
       </c>
       <c r="R17">
-        <v>72.92391920612</v>
+        <v>28.610212312977</v>
       </c>
       <c r="S17">
-        <v>0.000368714251435284</v>
+        <v>9.628237851513559E-05</v>
       </c>
       <c r="T17">
-        <v>0.000368714251435284</v>
+        <v>9.628237851513556E-05</v>
       </c>
     </row>
   </sheetData>
